--- a/data/trans_orig/P32B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E4100E3-3DF0-467D-85B4-F61AE100651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18608C3E-A783-40F4-B247-3F4B3FB15445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18AC33CB-F8A6-4253-9702-3083882D170B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01CBDC9A-4D43-4015-889C-787939A3AA99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="334">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,12%</t>
+    <t>6,08%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>91,88%</t>
+    <t>93,92%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>94,86%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -125,874 +125,922 @@
     <t>0,72%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B64F81C-CDC4-45FE-B9E8-4BCB9532DD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C113E1-C9B1-469C-9202-290323947686}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1996,10 +2044,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2014,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2023,13 +2071,13 @@
         <v>2666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,13 +2092,13 @@
         <v>327386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -2062,7 +2110,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2074,13 +2122,13 @@
         <v>457734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,7 +2184,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2148,13 +2196,13 @@
         <v>4098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2163,13 +2211,13 @@
         <v>7108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2178,13 +2226,13 @@
         <v>11206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2247,13 @@
         <v>524551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -2467,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2220B61-2641-4F3D-ADFA-F4D302618B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F14EFDE-85EA-4214-8FF1-CA8A4ADDA0F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2624,10 +2672,10 @@
         <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2690,13 @@
         <v>62511</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2660,7 +2708,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2672,13 +2720,13 @@
         <v>91617</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2794,13 @@
         <v>5712</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2767,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2776,13 +2824,13 @@
         <v>5712</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,7 +2851,7 @@
         <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -2815,7 +2863,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2827,13 +2875,13 @@
         <v>503206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2949,13 @@
         <v>12593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2916,13 +2964,13 @@
         <v>2022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2931,13 +2979,13 @@
         <v>14615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +3000,13 @@
         <v>582851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -2967,10 +3015,10 @@
         <v>294438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2982,13 +3030,13 @@
         <v>877289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3104,13 @@
         <v>12182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3071,13 +3119,13 @@
         <v>996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3086,13 +3134,13 @@
         <v>13178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3155,13 @@
         <v>447445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3122,10 +3170,10 @@
         <v>205683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3137,7 +3185,7 @@
         <v>653128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>154</v>
@@ -3199,7 +3247,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3369,10 +3417,10 @@
         <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -3381,13 +3429,13 @@
         <v>7207</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -3396,13 +3444,13 @@
         <v>65668</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,28 +3465,28 @@
         <v>1983782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
       </c>
       <c r="I20" s="7">
-        <v>1041530</v>
+        <v>1041529</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>2822</v>
@@ -3447,13 +3495,13 @@
         <v>3025312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3528,7 @@
         <v>963</v>
       </c>
       <c r="I21" s="7">
-        <v>1048737</v>
+        <v>1048736</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3530,7 +3578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6DD10-2E33-44ED-BAB9-53539F458971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C51B8B-E7B1-43EF-9E10-C4E8911E4543}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3547,7 +3595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3654,13 +3702,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3675,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3684,13 +3732,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,10 +3753,10 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3723,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3735,10 +3783,10 @@
         <v>118637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3809,13 +3857,13 @@
         <v>5035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3824,13 +3872,13 @@
         <v>823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3839,13 +3887,13 @@
         <v>5858</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3908,13 @@
         <v>339479</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3875,10 +3923,10 @@
         <v>149340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3890,13 +3938,13 @@
         <v>488820</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -3994,13 +4042,13 @@
         <v>19533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4063,13 @@
         <v>557054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4030,10 +4078,10 @@
         <v>320284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4045,13 +4093,13 @@
         <v>877337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4167,13 @@
         <v>3887</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4140,7 +4188,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4149,13 +4197,13 @@
         <v>3887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4218,13 @@
         <v>420012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -4188,7 +4236,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4200,13 +4248,13 @@
         <v>649679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,7 +4310,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4274,13 +4322,13 @@
         <v>14703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4289,13 +4337,13 @@
         <v>8901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4304,13 +4352,13 @@
         <v>23605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4373,13 @@
         <v>559727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4340,13 +4388,13 @@
         <v>399169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>922</v>
@@ -4355,13 +4403,13 @@
         <v>958895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4477,13 @@
         <v>42235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4444,13 +4492,13 @@
         <v>11756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4459,13 +4507,13 @@
         <v>53991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4528,13 @@
         <v>1960379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>1082</v>
@@ -4495,13 +4543,13 @@
         <v>1132989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4510,13 +4558,13 @@
         <v>3093368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F336969-577B-49DC-8065-43CB1089AD1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C631EA-3B59-4463-8B11-F5CC73A010F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,13 +4765,13 @@
         <v>859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4738,7 +4786,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4747,13 +4795,13 @@
         <v>859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,10 +4816,10 @@
         <v>45148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4786,7 +4834,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4798,10 +4846,10 @@
         <v>72412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4872,13 +4920,13 @@
         <v>1200</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4887,13 +4935,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4902,13 +4950,13 @@
         <v>2610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,10 +4971,10 @@
         <v>287731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4938,10 +4986,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4953,13 +5001,13 @@
         <v>427349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5075,13 @@
         <v>12721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5042,13 +5090,13 @@
         <v>5809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5057,13 +5105,13 @@
         <v>18531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>230</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5126,13 @@
         <v>474428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5093,13 +5141,13 @@
         <v>212663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>711</v>
@@ -5108,13 +5156,13 @@
         <v>687089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,10 +5233,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5197,13 +5245,13 @@
         <v>4443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5212,13 +5260,13 @@
         <v>7246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,10 +5284,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5248,13 +5296,13 @@
         <v>292333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>541</v>
@@ -5263,13 +5311,13 @@
         <v>623766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,7 +5373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5337,13 +5385,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5352,13 +5400,13 @@
         <v>3299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5367,13 +5415,13 @@
         <v>16135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5436,13 @@
         <v>446633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5403,13 +5451,13 @@
         <v>308307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>319</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>879</v>
@@ -5418,13 +5466,13 @@
         <v>754940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5540,13 @@
         <v>30421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5507,13 +5555,13 @@
         <v>14961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5522,13 +5570,13 @@
         <v>45382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5591,13 @@
         <v>1585370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>1182</v>
@@ -5558,13 +5606,13 @@
         <v>980185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>2732</v>
@@ -5573,13 +5621,13 @@
         <v>2565555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P32B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18608C3E-A783-40F4-B247-3F4B3FB15445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADE5B68-A7C5-4117-981C-DC51868B94D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{01CBDC9A-4D43-4015-889C-787939A3AA99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4652E59-D0B7-4185-AC9C-74F04EACF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="336">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,08%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,41%</t>
+    <t>4,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>93,92%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,931 +116,937 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,81%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2015 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>98,76%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C113E1-C9B1-469C-9202-290323947686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F14DBA-2B70-494A-8704-2881724A4DB3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2077,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,13 +2098,13 @@
         <v>327386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -2110,7 +2116,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2122,13 +2128,13 @@
         <v>457734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,7 +2190,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2196,13 +2202,13 @@
         <v>4098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2211,13 +2217,13 @@
         <v>7108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2226,13 +2232,13 @@
         <v>11206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>524551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -2262,13 +2268,13 @@
         <v>297947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>839</v>
@@ -2277,13 +2283,13 @@
         <v>822498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,10 +2390,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2408,13 @@
         <v>1864575</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>865</v>
@@ -2420,10 +2426,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>2695</v>
@@ -2432,13 +2438,13 @@
         <v>2749765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2500,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F14EFDE-85EA-4214-8FF1-CA8A4ADDA0F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC30C67-767D-4584-BEA0-1883C5621FD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2532,7 +2538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2639,13 +2645,13 @@
         <v>3006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2660,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2669,13 +2675,13 @@
         <v>3006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2696,13 @@
         <v>62511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2708,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2720,13 +2726,13 @@
         <v>91617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2800,13 @@
         <v>5712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2815,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2824,13 +2830,13 @@
         <v>5712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2851,13 @@
         <v>356899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -2863,7 +2869,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2875,13 +2881,13 @@
         <v>503206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2955,13 @@
         <v>12593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2964,13 +2970,13 @@
         <v>2022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2979,13 +2985,13 @@
         <v>14615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3006,13 @@
         <v>582851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -3015,10 +3021,10 @@
         <v>294438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3030,13 +3036,13 @@
         <v>877289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3110,13 @@
         <v>12182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3119,13 +3125,13 @@
         <v>996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3134,13 +3140,13 @@
         <v>13178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3161,13 @@
         <v>447445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3170,10 +3176,10 @@
         <v>205683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3185,13 +3191,13 @@
         <v>653128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3253,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3259,13 +3265,13 @@
         <v>24968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3274,13 +3280,13 @@
         <v>4189</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3289,13 +3295,13 @@
         <v>29157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>534076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>344</v>
@@ -3325,13 +3331,13 @@
         <v>365995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>862</v>
@@ -3340,13 +3346,13 @@
         <v>900072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>58462</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -3429,13 +3435,13 @@
         <v>7207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -3444,13 +3450,13 @@
         <v>65668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,28 +3471,28 @@
         <v>1983782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
       </c>
       <c r="I20" s="7">
-        <v>1041529</v>
+        <v>1041530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" s="7">
         <v>2822</v>
@@ -3495,13 +3501,13 @@
         <v>3025312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3534,7 @@
         <v>963</v>
       </c>
       <c r="I21" s="7">
-        <v>1048736</v>
+        <v>1048737</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3557,7 +3563,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3578,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C51B8B-E7B1-43EF-9E10-C4E8911E4543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24123ACF-506C-427F-AA5F-A603D1B999C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,7 +3601,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3702,13 +3708,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3723,7 +3729,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3732,13 +3738,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,10 +3759,10 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3771,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3783,10 +3789,10 @@
         <v>118637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3857,13 +3863,13 @@
         <v>5035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3872,13 +3878,13 @@
         <v>823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3887,13 +3893,13 @@
         <v>5858</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3914,13 @@
         <v>339479</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3923,10 +3929,10 @@
         <v>149340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3938,13 +3944,13 @@
         <v>488820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4018,13 @@
         <v>17501</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4027,13 +4033,13 @@
         <v>2032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4042,13 +4048,13 @@
         <v>19533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4069,13 @@
         <v>557054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4078,10 +4084,10 @@
         <v>320284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4093,13 +4099,13 @@
         <v>877337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4173,13 @@
         <v>3887</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4188,7 +4194,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4197,13 +4203,13 @@
         <v>3887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4224,13 @@
         <v>420012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -4236,7 +4242,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4248,13 +4254,13 @@
         <v>649679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,7 +4316,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4322,13 +4328,13 @@
         <v>14703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4337,13 +4343,13 @@
         <v>8901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4352,13 +4358,13 @@
         <v>23605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4379,13 @@
         <v>559727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4388,13 +4394,13 @@
         <v>399169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>922</v>
@@ -4403,13 +4409,13 @@
         <v>958895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4483,13 @@
         <v>42235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4492,13 +4498,13 @@
         <v>11756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4507,13 +4513,13 @@
         <v>53991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4534,13 @@
         <v>1960379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>1082</v>
@@ -4543,13 +4549,13 @@
         <v>1132989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4558,13 +4564,13 @@
         <v>3093368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,7 +4626,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C631EA-3B59-4463-8B11-F5CC73A010F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774DCBA2-EF3F-4FE7-9E90-0A1D91A98448}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4658,7 +4664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4765,13 +4771,13 @@
         <v>859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>258</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4786,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4795,13 +4801,13 @@
         <v>859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,10 +4822,10 @@
         <v>45148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4834,7 +4840,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4846,10 +4852,10 @@
         <v>72412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4920,13 +4926,13 @@
         <v>1200</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4935,13 +4941,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4950,13 +4956,13 @@
         <v>2610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,10 +4977,10 @@
         <v>287731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4986,10 +4992,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5001,13 +5007,13 @@
         <v>427349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5081,13 @@
         <v>12721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5090,13 +5096,13 @@
         <v>5809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5105,13 +5111,13 @@
         <v>18531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5132,13 @@
         <v>474428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5141,13 +5147,13 @@
         <v>212663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M11" s="7">
         <v>711</v>
@@ -5156,13 +5162,13 @@
         <v>687089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,10 +5239,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5245,13 +5251,13 @@
         <v>4443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5260,13 +5266,13 @@
         <v>7246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,10 +5290,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5296,13 +5302,13 @@
         <v>292333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>541</v>
@@ -5311,13 +5317,13 @@
         <v>623766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,7 +5379,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5385,13 +5391,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5400,13 +5406,13 @@
         <v>3299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5415,13 +5421,13 @@
         <v>16135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,13 +5442,13 @@
         <v>446633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>316</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5451,13 +5457,13 @@
         <v>308307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>879</v>
@@ -5466,13 +5472,13 @@
         <v>754940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5546,13 @@
         <v>30421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5555,13 +5561,13 @@
         <v>14961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5570,13 +5576,13 @@
         <v>45382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,13 +5597,13 @@
         <v>1585370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>1182</v>
@@ -5606,10 +5612,10 @@
         <v>980185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>51</v>
@@ -5621,13 +5627,13 @@
         <v>2565555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,7 +5689,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BADE5B68-A7C5-4117-981C-DC51868B94D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EA6145-3212-4B29-AF83-F172E3A74F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4652E59-D0B7-4185-AC9C-74F04EACF4A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88749007-949E-4593-B733-2151B0D8FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>8,12%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,24%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>91,88%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>95,76%</t>
+    <t>94,86%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,928 +125,874 @@
     <t>0,72%</t>
   </si>
   <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,26%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>96,63%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>98,75%</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F14DBA-2B70-494A-8704-2881724A4DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2B797-5092-4918-BCF8-1707E8CF5BC5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2050,10 +1996,10 @@
         <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2068,7 +2014,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2077,13 +2023,13 @@
         <v>2666</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2044,13 @@
         <v>327386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>135</v>
@@ -2116,7 +2062,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -2128,13 +2074,13 @@
         <v>457734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,7 +2136,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2202,13 +2148,13 @@
         <v>4098</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -2217,13 +2163,13 @@
         <v>7108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2232,13 +2178,13 @@
         <v>11206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2199,13 @@
         <v>524551</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>287</v>
@@ -2268,13 +2214,13 @@
         <v>297947</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>839</v>
@@ -2283,13 +2229,13 @@
         <v>822498</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2336,10 @@
         <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,13 +2354,13 @@
         <v>1864575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>865</v>
@@ -2426,10 +2372,10 @@
         <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>2695</v>
@@ -2438,13 +2384,13 @@
         <v>2749765</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,7 +2446,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC30C67-767D-4584-BEA0-1883C5621FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3DD1E-C075-4CFF-A286-884AFDD5CE0A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2538,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2645,13 +2591,13 @@
         <v>3006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2666,7 +2612,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2675,13 +2621,13 @@
         <v>3006</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2642,13 @@
         <v>62511</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>25</v>
@@ -2714,7 +2660,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2726,13 +2672,13 @@
         <v>91617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2746,13 @@
         <v>5712</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2821,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2830,13 +2776,13 @@
         <v>5712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2797,13 @@
         <v>356899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -2869,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>23</v>
@@ -2881,13 +2827,13 @@
         <v>503206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2901,13 @@
         <v>12593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2970,13 +2916,13 @@
         <v>2022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2985,13 +2931,13 @@
         <v>14615</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2952,13 @@
         <v>582851</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -3021,10 +2967,10 @@
         <v>294438</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -3036,13 +2982,13 @@
         <v>877289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3056,13 @@
         <v>12182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3125,13 +3071,13 @@
         <v>996</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -3140,13 +3086,13 @@
         <v>13178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3107,13 @@
         <v>447445</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3176,10 +3122,10 @@
         <v>205683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3191,13 +3137,13 @@
         <v>653128</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3199,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3211,13 @@
         <v>24968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3280,13 +3226,13 @@
         <v>4189</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -3295,13 +3241,13 @@
         <v>29157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3262,13 @@
         <v>534076</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>344</v>
@@ -3331,13 +3277,13 @@
         <v>365995</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>862</v>
@@ -3346,13 +3292,13 @@
         <v>900072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3366,13 @@
         <v>58462</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -3435,13 +3381,13 @@
         <v>7207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -3450,13 +3396,13 @@
         <v>65668</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3417,13 @@
         <v>1983782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H20" s="7">
         <v>956</v>
@@ -3486,13 +3432,13 @@
         <v>1041530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>2822</v>
@@ -3501,13 +3447,13 @@
         <v>3025312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3509,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24123ACF-506C-427F-AA5F-A603D1B999C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BF802-5788-4FE5-878C-2AF2E5CA47DC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3601,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3708,13 +3654,13 @@
         <v>1108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3729,7 +3675,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3738,13 +3684,13 @@
         <v>1108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,10 +3705,10 @@
         <v>84108</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3777,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3789,10 +3735,10 @@
         <v>118637</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3863,13 +3809,13 @@
         <v>5035</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3878,13 +3824,13 @@
         <v>823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -3893,13 +3839,13 @@
         <v>5858</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3860,13 @@
         <v>339479</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>153</v>
@@ -3929,10 +3875,10 @@
         <v>149340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -3944,13 +3890,13 @@
         <v>488820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +3964,13 @@
         <v>17501</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4033,13 +3979,13 @@
         <v>2032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4048,13 +3994,13 @@
         <v>19533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4015,13 @@
         <v>557054</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H11" s="7">
         <v>305</v>
@@ -4084,10 +4030,10 @@
         <v>320284</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -4099,13 +4045,13 @@
         <v>877337</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4119,13 @@
         <v>3887</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4194,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -4203,13 +4149,13 @@
         <v>3887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4170,13 @@
         <v>420012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -4242,7 +4188,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -4254,13 +4200,13 @@
         <v>649679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4328,13 +4274,13 @@
         <v>14703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4343,13 +4289,13 @@
         <v>8901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4358,13 +4304,13 @@
         <v>23605</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4325,13 @@
         <v>559727</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>369</v>
@@ -4394,13 +4340,13 @@
         <v>399169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>922</v>
@@ -4409,13 +4355,13 @@
         <v>958895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4429,13 @@
         <v>42235</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4498,13 +4444,13 @@
         <v>11756</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -4513,13 +4459,13 @@
         <v>53991</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4480,13 @@
         <v>1960379</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>1082</v>
@@ -4549,13 +4495,13 @@
         <v>1132989</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>2938</v>
@@ -4564,13 +4510,13 @@
         <v>3093368</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4572,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774DCBA2-EF3F-4FE7-9E90-0A1D91A98448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B9D73-B265-4B9F-B397-96D713877A26}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4664,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4771,13 +4717,13 @@
         <v>859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4792,7 +4738,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4801,13 +4747,13 @@
         <v>859</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,10 +4768,10 @@
         <v>45148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4840,7 +4786,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4852,10 +4798,10 @@
         <v>72412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -4926,13 +4872,13 @@
         <v>1200</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4941,13 +4887,13 @@
         <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4956,13 +4902,13 @@
         <v>2610</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,10 +4923,10 @@
         <v>287731</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -4992,10 +4938,10 @@
         <v>139618</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -5007,13 +4953,13 @@
         <v>427349</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5027,13 @@
         <v>12721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5096,13 +5042,13 @@
         <v>5809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -5111,13 +5057,13 @@
         <v>18531</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5078,13 @@
         <v>474428</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>280</v>
@@ -5147,13 +5093,13 @@
         <v>212663</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>711</v>
@@ -5162,13 +5108,13 @@
         <v>687089</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,10 +5185,10 @@
         <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5251,13 +5197,13 @@
         <v>4443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5266,13 +5212,13 @@
         <v>7246</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,10 +5236,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5302,13 +5248,13 @@
         <v>292333</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>541</v>
@@ -5317,13 +5263,13 @@
         <v>623766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5325,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5391,13 +5337,13 @@
         <v>12836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5406,13 +5352,13 @@
         <v>3299</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -5421,13 +5367,13 @@
         <v>16135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5388,13 @@
         <v>446633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>411</v>
@@ -5457,13 +5403,13 @@
         <v>308307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="M17" s="7">
         <v>879</v>
@@ -5472,13 +5418,13 @@
         <v>754940</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5492,13 @@
         <v>30421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5561,13 +5507,13 @@
         <v>14961</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5576,13 +5522,13 @@
         <v>45382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>330</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5543,13 @@
         <v>1585370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>1182</v>
@@ -5612,13 +5558,13 @@
         <v>980185</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>2732</v>
@@ -5627,13 +5573,13 @@
         <v>2565555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,7 +5635,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EA6145-3212-4B29-AF83-F172E3A74F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A3EE8C-1CD0-4C40-B7B8-24E8D694A334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88749007-949E-4593-B733-2151B0D8FD76}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{120C789F-9A95-4F7E-AA44-BDD30D2B0CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="273">
   <si>
     <t>Población según si se han sentido mal o culpables por su forma de beber en 2007 (Tasa respuesta: 41,76%)</t>
   </si>
@@ -68,931 +68,796 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,47%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,22%</t>
+    <t>98,96%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2012 (Tasa respuesta: 44,32%)</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2016 (Tasa respuesta: 45,5%)</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Población según si se han sentido mal o culpables por su forma de beber en 2023 (Tasa respuesta: 31,88%)</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2B797-5092-4918-BCF8-1707E8CF5BC5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3FC3CE-EA83-4640-8E11-09853E9E1E0E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1522,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1058</v>
+        <v>3698</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1543,79 +1408,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1058</v>
+        <v>3698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>65</v>
+        <v>426</v>
       </c>
       <c r="D5" s="7">
-        <v>71023</v>
+        <v>435621</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>97</v>
+        <v>609</v>
       </c>
       <c r="N5" s="7">
-        <v>100307</v>
+        <v>616227</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1624,153 +1489,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>429</v>
       </c>
       <c r="D6" s="7">
-        <v>72081</v>
+        <v>439319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>180606</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>612</v>
       </c>
       <c r="N6" s="7">
-        <v>101365</v>
+        <v>619925</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4881</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
-        <v>2641</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>2641</v>
+        <v>7104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>361</v>
+        <v>538</v>
       </c>
       <c r="D8" s="7">
-        <v>364597</v>
+        <v>577018</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>151323</v>
+        <v>276288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>512</v>
+        <v>798</v>
       </c>
       <c r="N8" s="7">
-        <v>515919</v>
+        <v>853305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,153 +1644,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>543</v>
       </c>
       <c r="D9" s="7">
-        <v>367238</v>
+        <v>581899</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="I9" s="7">
-        <v>151323</v>
+        <v>278511</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>514</v>
+        <v>805</v>
       </c>
       <c r="N9" s="7">
-        <v>518560</v>
+        <v>860409</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>4881</v>
+        <v>2666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2223</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>7104</v>
+        <v>2666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>538</v>
+        <v>314</v>
       </c>
       <c r="D11" s="7">
-        <v>577018</v>
+        <v>327386</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="I11" s="7">
-        <v>276287</v>
+        <v>130349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>798</v>
+        <v>449</v>
       </c>
       <c r="N11" s="7">
-        <v>853305</v>
+        <v>457735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,153 +1799,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>543</v>
+        <v>317</v>
       </c>
       <c r="D12" s="7">
-        <v>581899</v>
+        <v>330052</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>278510</v>
+        <v>130349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>805</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>860409</v>
+        <v>460401</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2666</v>
+        <v>4098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>7108</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>2666</v>
+        <v>11206</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>314</v>
+        <v>552</v>
       </c>
       <c r="D14" s="7">
-        <v>327386</v>
+        <v>524551</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
-        <v>135</v>
+        <v>287</v>
       </c>
       <c r="I14" s="7">
-        <v>130349</v>
+        <v>297947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>449</v>
+        <v>839</v>
       </c>
       <c r="N14" s="7">
-        <v>457734</v>
+        <v>822498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,153 +1954,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>317</v>
+        <v>556</v>
       </c>
       <c r="D15" s="7">
-        <v>330052</v>
+        <v>528649</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="I15" s="7">
-        <v>130349</v>
+        <v>305055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>460400</v>
+        <v>833704</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>4098</v>
+        <v>15343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>7108</v>
+        <v>9331</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>11206</v>
+        <v>24674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>552</v>
+        <v>1830</v>
       </c>
       <c r="D17" s="7">
-        <v>524551</v>
+        <v>1864575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
-        <v>287</v>
+        <v>865</v>
       </c>
       <c r="I17" s="7">
-        <v>297947</v>
+        <v>885189</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>839</v>
+        <v>2695</v>
       </c>
       <c r="N17" s="7">
-        <v>822498</v>
+        <v>2749765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,217 +2109,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>556</v>
+        <v>1845</v>
       </c>
       <c r="D18" s="7">
-        <v>528649</v>
+        <v>1879918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>294</v>
+        <v>874</v>
       </c>
       <c r="I18" s="7">
-        <v>305055</v>
+        <v>894520</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>850</v>
+        <v>2719</v>
       </c>
       <c r="N18" s="7">
-        <v>833704</v>
+        <v>2774439</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15343</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9331</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>24</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24674</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1830</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1864575</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="7">
-        <v>865</v>
-      </c>
-      <c r="I20" s="7">
-        <v>885189</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2695</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2749765</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1845</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1879918</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>874</v>
-      </c>
-      <c r="I21" s="7">
-        <v>894520</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2719</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2774439</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2467,8 +2176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA3DD1E-C075-4CFF-A286-884AFDD5CE0A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B352EB7E-B031-49F8-99EC-C569068636BA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2484,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,19 +2294,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>3006</v>
+        <v>8718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2606,79 +2315,79 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>3006</v>
+        <v>8718</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="D5" s="7">
-        <v>62511</v>
+        <v>419410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>29107</v>
+        <v>175413</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>92</v>
+        <v>563</v>
       </c>
       <c r="N5" s="7">
-        <v>91617</v>
+        <v>594823</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,153 +2396,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="D6" s="7">
-        <v>65517</v>
+        <v>428128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>29107</v>
+        <v>175413</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>96</v>
+        <v>573</v>
       </c>
       <c r="N6" s="7">
-        <v>94623</v>
+        <v>603541</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>5712</v>
+        <v>12593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>5712</v>
+        <v>14615</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>333</v>
+        <v>539</v>
       </c>
       <c r="D8" s="7">
-        <v>356899</v>
+        <v>582851</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="I8" s="7">
-        <v>146306</v>
+        <v>294438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>471</v>
+        <v>808</v>
       </c>
       <c r="N8" s="7">
-        <v>503206</v>
+        <v>877289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,54 +2551,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>550</v>
       </c>
       <c r="D9" s="7">
-        <v>362611</v>
+        <v>595444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>138</v>
+        <v>271</v>
       </c>
       <c r="I9" s="7">
-        <v>146306</v>
+        <v>296460</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>477</v>
+        <v>821</v>
       </c>
       <c r="N9" s="7">
-        <v>508918</v>
+        <v>891904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2898,97 +2607,97 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12593</v>
+        <v>12182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2022</v>
+        <v>996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="7">
-        <v>13</v>
-      </c>
       <c r="N10" s="7">
-        <v>14615</v>
+        <v>13178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>539</v>
+        <v>409</v>
       </c>
       <c r="D11" s="7">
-        <v>582851</v>
+        <v>447445</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>294438</v>
+        <v>205683</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>808</v>
+        <v>589</v>
       </c>
       <c r="N11" s="7">
-        <v>877289</v>
+        <v>653128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,153 +2706,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="D12" s="7">
-        <v>595444</v>
+        <v>459627</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="I12" s="7">
-        <v>296460</v>
+        <v>206679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>821</v>
+        <v>601</v>
       </c>
       <c r="N12" s="7">
-        <v>891904</v>
+        <v>666306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>12182</v>
+        <v>24968</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>996</v>
+        <v>4189</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>13178</v>
+        <v>29157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="D14" s="7">
-        <v>447445</v>
+        <v>534076</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="7">
+        <v>344</v>
+      </c>
+      <c r="I14" s="7">
+        <v>365995</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="7">
+        <v>862</v>
+      </c>
+      <c r="N14" s="7">
+        <v>900072</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="7">
-        <v>180</v>
-      </c>
-      <c r="I14" s="7">
-        <v>205683</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="7">
-        <v>589</v>
-      </c>
-      <c r="N14" s="7">
-        <v>653128</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,153 +2861,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="D15" s="7">
-        <v>459627</v>
+        <v>559044</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>181</v>
+        <v>348</v>
       </c>
       <c r="I15" s="7">
-        <v>206679</v>
+        <v>370184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>601</v>
+        <v>889</v>
       </c>
       <c r="N15" s="7">
-        <v>666306</v>
+        <v>929229</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>24968</v>
+        <v>58462</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>7</v>
+      </c>
+      <c r="I16" s="7">
+        <v>7207</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="7">
+        <v>62</v>
+      </c>
+      <c r="N16" s="7">
+        <v>65668</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4189</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M16" s="7">
-        <v>27</v>
-      </c>
-      <c r="N16" s="7">
-        <v>29157</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>518</v>
+        <v>1866</v>
       </c>
       <c r="D17" s="7">
-        <v>534076</v>
+        <v>1983782</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="7">
+        <v>956</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1041530</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2822</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3025312</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="7">
-        <v>344</v>
-      </c>
-      <c r="I17" s="7">
-        <v>365995</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M17" s="7">
-        <v>862</v>
-      </c>
-      <c r="N17" s="7">
-        <v>900072</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,217 +3016,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>541</v>
+        <v>1921</v>
       </c>
       <c r="D18" s="7">
-        <v>559044</v>
+        <v>2042244</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>348</v>
+        <v>963</v>
       </c>
       <c r="I18" s="7">
-        <v>370184</v>
+        <v>1048737</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>889</v>
+        <v>2884</v>
       </c>
       <c r="N18" s="7">
-        <v>929229</v>
+        <v>3090980</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7">
-        <v>58462</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="7">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7207</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="7">
-        <v>62</v>
-      </c>
-      <c r="N19" s="7">
-        <v>65668</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1866</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1983782</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>956</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1041530</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2822</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3025312</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1921</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2042244</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>963</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1048737</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2884</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3090980</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3530,8 +3083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94BF802-5788-4FE5-878C-2AF2E5CA47DC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F522DB16-E672-4EF2-81C9-6F66B931CFE9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3547,7 +3100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3648,100 +3201,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6143</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>1108</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>1108</v>
+        <v>6966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="D5" s="7">
-        <v>84108</v>
+        <v>423587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I5" s="7">
-        <v>34529</v>
+        <v>183870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>118</v>
+        <v>595</v>
       </c>
       <c r="N5" s="7">
-        <v>118637</v>
+        <v>607457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,153 +3303,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="D6" s="7">
-        <v>85216</v>
+        <v>429730</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>34529</v>
+        <v>184693</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>119</v>
+        <v>602</v>
       </c>
       <c r="N6" s="7">
-        <v>119745</v>
+        <v>614423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>5035</v>
+        <v>17501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>823</v>
+        <v>2032</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>5858</v>
+        <v>19533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>324</v>
+        <v>516</v>
       </c>
       <c r="D8" s="7">
-        <v>339479</v>
+        <v>557054</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="I8" s="7">
-        <v>149340</v>
+        <v>320284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
-        <v>477</v>
+        <v>821</v>
       </c>
       <c r="N8" s="7">
-        <v>488820</v>
+        <v>877337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,153 +3458,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="D9" s="7">
-        <v>344514</v>
+        <v>574555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>150163</v>
+        <v>322316</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>483</v>
+        <v>838</v>
       </c>
       <c r="N9" s="7">
-        <v>494678</v>
+        <v>896870</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3887</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
-        <v>17501</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2032</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>19533</v>
+        <v>3887</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>516</v>
+        <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>557054</v>
+        <v>420012</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H11" s="7">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>320284</v>
+        <v>229667</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>821</v>
+        <v>600</v>
       </c>
       <c r="N11" s="7">
-        <v>877337</v>
+        <v>649679</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,153 +3613,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>531</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>574555</v>
+        <v>423899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>322316</v>
+        <v>229667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>838</v>
+        <v>603</v>
       </c>
       <c r="N12" s="7">
-        <v>896870</v>
+        <v>653566</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>3887</v>
+        <v>14703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>8901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>3887</v>
+        <v>23605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>382</v>
+        <v>553</v>
       </c>
       <c r="D14" s="7">
-        <v>420012</v>
+        <v>559727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>369</v>
       </c>
       <c r="I14" s="7">
-        <v>229666</v>
+        <v>399169</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
-        <v>600</v>
+        <v>922</v>
       </c>
       <c r="N14" s="7">
-        <v>649679</v>
+        <v>958895</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,153 +3768,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>568</v>
       </c>
       <c r="D15" s="7">
-        <v>423899</v>
+        <v>574430</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="I15" s="7">
-        <v>229666</v>
+        <v>408070</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>603</v>
+        <v>946</v>
       </c>
       <c r="N15" s="7">
-        <v>653566</v>
+        <v>982500</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>14703</v>
+        <v>42235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>8901</v>
+        <v>11756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>23605</v>
+        <v>53991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>553</v>
+        <v>1856</v>
       </c>
       <c r="D17" s="7">
-        <v>559727</v>
+        <v>1960379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
-        <v>369</v>
+        <v>1082</v>
       </c>
       <c r="I17" s="7">
-        <v>399169</v>
+        <v>1132989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
-        <v>922</v>
+        <v>2938</v>
       </c>
       <c r="N17" s="7">
-        <v>958895</v>
+        <v>3093368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,217 +3923,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>568</v>
+        <v>1895</v>
       </c>
       <c r="D18" s="7">
-        <v>574430</v>
+        <v>2002614</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>378</v>
+        <v>1094</v>
       </c>
       <c r="I18" s="7">
-        <v>408070</v>
+        <v>1144745</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>946</v>
+        <v>2989</v>
       </c>
       <c r="N18" s="7">
-        <v>982500</v>
+        <v>3147359</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42235</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M19" s="7">
-        <v>51</v>
-      </c>
-      <c r="N19" s="7">
-        <v>53991</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1856</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1960379</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1082</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1132989</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2938</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3093368</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1895</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2002614</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1094</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1144745</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2989</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3147359</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4593,8 +3990,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7B9D73-B265-4B9F-B397-96D713877A26}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5670595B-A67D-438C-A818-D52FF6FD1DA3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4610,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4711,100 +4108,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>859</v>
+        <v>1944</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>859</v>
+        <v>3251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>258</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="D5" s="7">
-        <v>45148</v>
+        <v>330922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="I5" s="7">
-        <v>27264</v>
+        <v>158790</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>601</v>
       </c>
       <c r="N5" s="7">
-        <v>72412</v>
+        <v>489712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,153 +4210,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="D6" s="7">
-        <v>46007</v>
+        <v>332866</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="I6" s="7">
-        <v>27264</v>
+        <v>160097</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>97</v>
+        <v>606</v>
       </c>
       <c r="N6" s="7">
-        <v>73271</v>
+        <v>492963</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>1200</v>
+        <v>12652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>1410</v>
+        <v>5368</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>266</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>2610</v>
+        <v>18020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>300</v>
+        <v>431</v>
       </c>
       <c r="D8" s="7">
-        <v>287731</v>
+        <v>464104</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="I8" s="7">
-        <v>139618</v>
+        <v>195427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>273</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
-        <v>505</v>
+        <v>711</v>
       </c>
       <c r="N8" s="7">
-        <v>427349</v>
+        <v>659531</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,153 +4365,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>443</v>
       </c>
       <c r="D9" s="7">
-        <v>288931</v>
+        <v>476756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="I9" s="7">
-        <v>141028</v>
+        <v>200795</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>509</v>
+        <v>730</v>
       </c>
       <c r="N9" s="7">
-        <v>429959</v>
+        <v>677551</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2679</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3848</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6527</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>12721</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5809</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18531</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="D11" s="7">
-        <v>474428</v>
+        <v>322669</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>287</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>212663</v>
+        <v>372249</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>711</v>
+        <v>541</v>
       </c>
       <c r="N11" s="7">
-        <v>687089</v>
+        <v>694918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,153 +4520,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>443</v>
+        <v>303</v>
       </c>
       <c r="D12" s="7">
-        <v>487149</v>
+        <v>325348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>218472</v>
+        <v>376097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>730</v>
+        <v>551</v>
       </c>
       <c r="N12" s="7">
-        <v>705620</v>
+        <v>701445</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>2804</v>
+        <v>13672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4443</v>
+        <v>3001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>7246</v>
+        <v>16673</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>298</v>
+        <v>468</v>
       </c>
       <c r="D14" s="7">
-        <v>331432</v>
+        <v>429002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>243</v>
+        <v>411</v>
       </c>
       <c r="I14" s="7">
-        <v>292333</v>
+        <v>285856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
-        <v>541</v>
+        <v>879</v>
       </c>
       <c r="N14" s="7">
-        <v>623766</v>
+        <v>714859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,153 +4675,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>303</v>
+        <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>334236</v>
+        <v>442674</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>248</v>
+        <v>417</v>
       </c>
       <c r="I15" s="7">
-        <v>296776</v>
+        <v>288857</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>900</v>
       </c>
       <c r="N15" s="7">
-        <v>631012</v>
+        <v>731532</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>12836</v>
+        <v>30947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>3299</v>
+        <v>13525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>16135</v>
+        <v>44472</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>468</v>
+        <v>1550</v>
       </c>
       <c r="D17" s="7">
-        <v>446633</v>
+        <v>1546697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>411</v>
+        <v>1182</v>
       </c>
       <c r="I17" s="7">
-        <v>308307</v>
+        <v>1012322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>879</v>
+        <v>2732</v>
       </c>
       <c r="N17" s="7">
-        <v>754940</v>
+        <v>2559019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,217 +4830,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>483</v>
+        <v>1585</v>
       </c>
       <c r="D18" s="7">
-        <v>459469</v>
+        <v>1577644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>417</v>
+        <v>1202</v>
       </c>
       <c r="I18" s="7">
-        <v>311606</v>
+        <v>1025847</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>900</v>
+        <v>2787</v>
       </c>
       <c r="N18" s="7">
-        <v>771075</v>
+        <v>2603491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7">
-        <v>30421</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14961</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="M19" s="7">
-        <v>55</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45382</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1550</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1585370</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1182</v>
-      </c>
-      <c r="I20" s="7">
-        <v>980185</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2732</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2565555</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1585</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1615791</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1202</v>
-      </c>
-      <c r="I21" s="7">
-        <v>995146</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2787</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2610937</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>100</v>
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
